--- a/bin/TheNeolithicMod/Mod-spreadsheets.xlsx
+++ b/bin/TheNeolithicMod/Mod-spreadsheets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Games\VS\Tony-Mods\VS-1.8.6-The-Neolithic-Mod\bin\TheNeolithicMod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Games\VS\Tony-Mods\The-Neolithic-Mod\bin\TheNeolithicMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BC7EA4-5332-43CF-A77B-2C9B22C14A24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD7EC0F-ED22-4133-8A96-E210E05D8DE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17730" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17730" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Neolithic Mod" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,15 @@
     <sheet name="Darkagecraft Modpack" sheetId="3" r:id="rId3"/>
     <sheet name="Animal Spawn Rates" sheetId="4" r:id="rId4"/>
     <sheet name="Art" sheetId="5" r:id="rId5"/>
+    <sheet name="Rock Types" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="264">
   <si>
     <t>Weapons Damage, Durability</t>
   </si>
@@ -622,12 +624,207 @@
   <si>
     <t xml:space="preserve"> 1/4 blocks.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Rock Types and ores </t>
+  </si>
+  <si>
+    <t>Volcanic/Igneous Extrusive</t>
+  </si>
+  <si>
+    <t>Sedimentary</t>
+  </si>
+  <si>
+    <t>Metamorphic</t>
+  </si>
+  <si>
+    <t>Igneous Intrusive</t>
+  </si>
+  <si>
+    <t>Kimberlite</t>
+  </si>
+  <si>
+    <t>Basalt</t>
+  </si>
+  <si>
+    <t>Claystone</t>
+  </si>
+  <si>
+    <t>Sandstone</t>
+  </si>
+  <si>
+    <t>Shale</t>
+  </si>
+  <si>
+    <t>Conglomerate</t>
+  </si>
+  <si>
+    <t>Limestone</t>
+  </si>
+  <si>
+    <t>Chert</t>
+  </si>
+  <si>
+    <t>Chalk</t>
+  </si>
+  <si>
+    <t>Bauxite</t>
+  </si>
+  <si>
+    <t>Slate</t>
+  </si>
+  <si>
+    <t>Phyllite</t>
+  </si>
+  <si>
+    <t>Andesite</t>
+  </si>
+  <si>
+    <t>Peridotite</t>
+  </si>
+  <si>
+    <t>Granite</t>
+  </si>
+  <si>
+    <t>Native Copper</t>
+  </si>
+  <si>
+    <t>Malachite</t>
+  </si>
+  <si>
+    <t>Bismuthine</t>
+  </si>
+  <si>
+    <t>Cassiterite</t>
+  </si>
+  <si>
+    <t>Chromite</t>
+  </si>
+  <si>
+    <t>Galena</t>
+  </si>
+  <si>
+    <t>Ilmenite</t>
+  </si>
+  <si>
+    <t>Rhodochrosite</t>
+  </si>
+  <si>
+    <t>Sphalerite</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Iron/Limonite</t>
+  </si>
+  <si>
+    <t>Phyllite/Child rock types</t>
+  </si>
+  <si>
+    <t>Red Marble</t>
+  </si>
+  <si>
+    <t>White Marble</t>
+  </si>
+  <si>
+    <t>Green Marble</t>
+  </si>
+  <si>
+    <t>Slate/Child Rock Types</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P M R </t>
+  </si>
+  <si>
+    <t>P M R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P M </t>
+  </si>
+  <si>
+    <t>P M</t>
+  </si>
+  <si>
+    <t>P M R B</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
+  <si>
+    <t>Silver/Galena</t>
+  </si>
+  <si>
+    <t>P M S H</t>
+  </si>
+  <si>
+    <t>P M R B S H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P M S H </t>
+  </si>
+  <si>
+    <t>Iron/Hematite</t>
+  </si>
+  <si>
+    <t>Iron/Magnetite</t>
+  </si>
+  <si>
+    <t>P M S N</t>
+  </si>
+  <si>
+    <t>P M R S N</t>
+  </si>
+  <si>
+    <t>P M R S B N</t>
+  </si>
+  <si>
+    <t>P M R N</t>
+  </si>
+  <si>
+    <t>P - Poor</t>
+  </si>
+  <si>
+    <t>M - Medium</t>
+  </si>
+  <si>
+    <t>R - Rich</t>
+  </si>
+  <si>
+    <t>B - Bountiful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S - Surface </t>
+  </si>
+  <si>
+    <t>N - Loose Nuggets</t>
+  </si>
+  <si>
+    <t>H - Huge Deposits</t>
+  </si>
+  <si>
+    <t>Quartz</t>
+  </si>
+  <si>
+    <t>Gold in Quartz</t>
+  </si>
+  <si>
+    <t>Silver in Quartz</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -691,6 +888,12 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -748,7 +951,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -810,11 +1013,69 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="19">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -840,11 +1101,11 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Tool Durability-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="18"/>
+      <tableStyleElement type="firstRowStripe" dxfId="17"/>
+      <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -893,11 +1154,36 @@
     <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Column30"/>
   </tableColumns>
   <tableStyleInfo name="Tool Durability-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
-    </ext>
-  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{670E144F-73BF-468B-B618-77C827CE6BE2}" name="Table2" displayName="Table2" ref="A1:U31" totalsRowShown="0">
+  <autoFilter ref="A1:U31" xr:uid="{2901FF87-EF02-471C-8668-56E2CB2A5C08}"/>
+  <tableColumns count="21">
+    <tableColumn id="1" xr3:uid="{70C62FDA-E67D-4785-8743-8831963150C5}" name="Rock Types and ores "/>
+    <tableColumn id="2" xr3:uid="{A399B208-2CCD-4578-9D8D-FF3CC0F4E1E1}" name="Column1"/>
+    <tableColumn id="3" xr3:uid="{A6A60EF7-7E77-4EFB-A80E-353A77D7598E}" name="Bismuthine" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{7F02E942-0CE4-4D8E-8274-5815F7D24313}" name="Cassiterite" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{F20E2C20-50C7-4F54-ADD8-65A97D9E347F}" name="Chromite" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{D1E92FAC-109A-4A87-B327-61AB9995D695}" name="Galena" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{668854B3-EA11-4B5E-9AA3-9D27F403E3B7}" name="Silver/Galena" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{45E74C23-D105-4B3C-B96E-73F32AD4D771}" name="Ilmenite" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{AA7D8378-8A87-4920-B450-7D39F7D56356}" name="Iron/Limonite" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{BAE2A965-9E10-4827-8148-B84DE8CC9EFB}" name="Iron/Hematite" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{5D812E18-D81B-47AF-84E5-29DC61A6F192}" name="Iron/Magnetite" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{BF057886-2154-470A-9844-B5FB9EAD928E}" name="Malachite" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{84CC105E-3C37-4405-852A-BAB1582E4CE9}" name="Native Copper" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{C05E682C-7D36-4A3B-8510-382B35359B4C}" name="Rhodochrosite" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{F4D2670D-E93E-4D64-9B1D-EB02C27F721A}" name="Sphalerite" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{FEDF365F-DA9F-47AA-AB6C-D03BAEE07593}" name="Quartz" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{C53971D3-7B90-487F-9233-3E5E573DC834}" name="Gold in Quartz" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{BE2A27F3-0D4C-4BB7-A266-4E685F4367C4}" name="Silver in Quartz" dataDxfId="0"/>
+    <tableColumn id="19" xr3:uid="{CBB02BD2-B9E9-4C91-82DB-B9F7BA520F37}" name="Column6"/>
+    <tableColumn id="20" xr3:uid="{B5259D7E-AEC8-477D-B0CB-BBF4A9F5E8D8}" name="Column7"/>
+    <tableColumn id="21" xr3:uid="{8AA3E85E-C259-4BA1-9FA7-AC17DB2ECAD1}" name="Column8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -54441,7 +54727,7 @@
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -54645,4 +54931,1028 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374209BB-C733-44F0-9837-6C16DAD76EAE}">
+  <dimension ref="A1:U39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.26953125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" style="35" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" style="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.26953125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7265625" style="35" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.90625" style="36" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7265625" style="35" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.453125" style="35" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.7265625" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="S1" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="T1" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="U1" s="35" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q3" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="R3" s="36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="L6" s="36"/>
+      <c r="M6" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="N6" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="O6" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="P6" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q6" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="R6" s="36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="N7" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="O7" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="P7" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q7" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="R7" s="36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="L8" s="36"/>
+      <c r="M8" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="P8" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q8" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="R8" s="36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="L9" s="36"/>
+      <c r="M9" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="N9" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="O9" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="P9" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q9" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="R9" s="36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="M10" s="36"/>
+      <c r="N10" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="O10" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="P10" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q10" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="R10" s="36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="N11" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="O11" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="P11" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q11" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="R11" s="36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="N12" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="O12" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="P12" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q12" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="R12" s="36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="N15" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="O15" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="P15" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q15" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="R15" s="36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="L16" s="36"/>
+      <c r="M16" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="N16" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="O16" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="P16" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q16" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="R16" s="36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="L18" s="36"/>
+      <c r="M18" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="N18" s="36"/>
+      <c r="O18" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="P18" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q18" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="R18" s="36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="N19" s="36"/>
+      <c r="O19" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="P19" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q19" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="R19" s="36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="N20" s="36"/>
+      <c r="O20" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="P20" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q20" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="R20" s="36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="N21" s="36"/>
+      <c r="O21" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="P21" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q21" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="R21" s="36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="35" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="35" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="35" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="35" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/bin/TheNeolithicMod/Mod-spreadsheets.xlsx
+++ b/bin/TheNeolithicMod/Mod-spreadsheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Games\VS\Tony-Mods\The-Neolithic-Mod\bin\TheNeolithicMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD7EC0F-ED22-4133-8A96-E210E05D8DE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21811DC0-98B6-4102-BF02-B7F8D624D288}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17730" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,10 +18,9 @@
     <sheet name="Darkagecraft Modpack" sheetId="3" r:id="rId3"/>
     <sheet name="Animal Spawn Rates" sheetId="4" r:id="rId4"/>
     <sheet name="Art" sheetId="5" r:id="rId5"/>
-    <sheet name="Rock Types" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1158,30 +1157,30 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{670E144F-73BF-468B-B618-77C827CE6BE2}" name="Table2" displayName="Table2" ref="A1:U31" totalsRowShown="0">
-  <autoFilter ref="A1:U31" xr:uid="{2901FF87-EF02-471C-8668-56E2CB2A5C08}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{89D81091-1479-4F42-A671-5ABC988A208D}" name="Table2" displayName="Table2" ref="A1:U31" totalsRowShown="0">
+  <autoFilter ref="A1:U31" xr:uid="{73747813-AA2C-4C82-B659-1D22F969C982}"/>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{70C62FDA-E67D-4785-8743-8831963150C5}" name="Rock Types and ores "/>
-    <tableColumn id="2" xr3:uid="{A399B208-2CCD-4578-9D8D-FF3CC0F4E1E1}" name="Column1"/>
-    <tableColumn id="3" xr3:uid="{A6A60EF7-7E77-4EFB-A80E-353A77D7598E}" name="Bismuthine" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{7F02E942-0CE4-4D8E-8274-5815F7D24313}" name="Cassiterite" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{F20E2C20-50C7-4F54-ADD8-65A97D9E347F}" name="Chromite" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{D1E92FAC-109A-4A87-B327-61AB9995D695}" name="Galena" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{668854B3-EA11-4B5E-9AA3-9D27F403E3B7}" name="Silver/Galena" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{45E74C23-D105-4B3C-B96E-73F32AD4D771}" name="Ilmenite" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{AA7D8378-8A87-4920-B450-7D39F7D56356}" name="Iron/Limonite" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{BAE2A965-9E10-4827-8148-B84DE8CC9EFB}" name="Iron/Hematite" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{5D812E18-D81B-47AF-84E5-29DC61A6F192}" name="Iron/Magnetite" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{BF057886-2154-470A-9844-B5FB9EAD928E}" name="Malachite" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{84CC105E-3C37-4405-852A-BAB1582E4CE9}" name="Native Copper" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{C05E682C-7D36-4A3B-8510-382B35359B4C}" name="Rhodochrosite" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{F4D2670D-E93E-4D64-9B1D-EB02C27F721A}" name="Sphalerite" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{FEDF365F-DA9F-47AA-AB6C-D03BAEE07593}" name="Quartz" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{C53971D3-7B90-487F-9233-3E5E573DC834}" name="Gold in Quartz" dataDxfId="1"/>
-    <tableColumn id="18" xr3:uid="{BE2A27F3-0D4C-4BB7-A266-4E685F4367C4}" name="Silver in Quartz" dataDxfId="0"/>
-    <tableColumn id="19" xr3:uid="{CBB02BD2-B9E9-4C91-82DB-B9F7BA520F37}" name="Column6"/>
-    <tableColumn id="20" xr3:uid="{B5259D7E-AEC8-477D-B0CB-BBF4A9F5E8D8}" name="Column7"/>
-    <tableColumn id="21" xr3:uid="{8AA3E85E-C259-4BA1-9FA7-AC17DB2ECAD1}" name="Column8"/>
+    <tableColumn id="1" xr3:uid="{A6761D79-6A6C-46B6-B5B9-CB7930F36910}" name="Rock Types and ores "/>
+    <tableColumn id="2" xr3:uid="{6EFA9C1B-0155-4298-B8EF-53CAFBFA3CEB}" name="Column1"/>
+    <tableColumn id="3" xr3:uid="{C318B405-5060-4324-8301-2F45D9CF9700}" name="Bismuthine" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{1097373F-27A2-4BC5-A909-EE4A52846D2C}" name="Cassiterite" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{72C901ED-C564-460C-8EE9-1AEC4E4922C1}" name="Chromite" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{E60A8CA7-68E5-4EA0-AED0-4066969C9E27}" name="Galena" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{9CE7BA50-13CD-4A31-90C2-8CFD65F01E6F}" name="Silver/Galena" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{9A3638F0-9DFB-45A2-9E63-F63791A8134B}" name="Ilmenite" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{C0A640DC-CCB2-4F2F-9FA3-F8DFD34D2AD5}" name="Iron/Limonite" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{BE42190A-E5B0-4055-9156-EF2480FDD7C8}" name="Iron/Hematite" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{49621F09-D7F4-4B84-AB44-3B3025CC7C22}" name="Iron/Magnetite" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{8A687CB1-41E3-4279-AD2B-F501DBC30224}" name="Malachite" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{1ACAF09F-9598-4DDF-8E1D-60CB3BE3975F}" name="Native Copper" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{3A159752-C179-48AA-BE2E-E8E92AA93B7E}" name="Rhodochrosite" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{3492191C-39C0-4A1C-AA98-E43102CFDE64}" name="Sphalerite" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{102AB07F-6BF9-468E-9B8B-A039DFF76602}" name="Quartz" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{D130047F-2FFC-45D4-81D1-34523F3DF005}" name="Gold in Quartz" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{A53B182C-3050-4AD5-AB59-9FD4320BBFD0}" name="Silver in Quartz" dataDxfId="0"/>
+    <tableColumn id="19" xr3:uid="{F5B49C92-DD69-46A2-B46A-230A016CC472}" name="Column6"/>
+    <tableColumn id="20" xr3:uid="{D628EC43-50B7-4F11-B60B-2D4B2107DF38}" name="Column7"/>
+    <tableColumn id="21" xr3:uid="{DDC7B592-BB33-4E40-9DA7-E98BFF6BFC3D}" name="Column8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -54934,11 +54933,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374209BB-C733-44F0-9837-6C16DAD76EAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AF716A-BE6A-4F0A-BDE4-6050140BC8DF}">
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -55950,9 +55949,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>